--- a/trunk/resultados/criterio_poblacion.xlsx
+++ b/trunk/resultados/criterio_poblacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -385,7 +385,7 @@
     <col min="9" max="9" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -405,7 +405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>64</v>
       </c>
@@ -438,8 +438,16 @@
       <c r="K2">
         <v>24</v>
       </c>
+      <c r="M2">
+        <f>I2/4</f>
+        <v>10184.75</v>
+      </c>
+      <c r="N2">
+        <f>J2/4</f>
+        <v>447.75</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>48</v>
       </c>
@@ -472,8 +480,16 @@
       <c r="K3">
         <v>24</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M4" si="0">I3/4</f>
+        <v>6772.25</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="1">J3/4</f>
+        <v>305.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>32</v>
       </c>
@@ -506,8 +522,16 @@
       <c r="K4">
         <v>20</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>4853.25</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>244.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="I7">
         <v>19413</v>
       </c>
@@ -515,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="I8">
         <v>979</v>
       </c>
